--- a/软件测试与质量保证(updating)/hw/hw1.xlsx
+++ b/软件测试与质量保证(updating)/hw/hw1.xlsx
@@ -8,171 +8,413 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\myNotes\软件测试与质量保证(updating)\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81342BAC-D9FE-4E38-97C7-810950365718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE0851-8009-4431-91C9-ABB3E8F71575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="1755" windowWidth="13875" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="1845" windowWidth="14880" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+  <si>
+    <t>TestCase lD</t>
+  </si>
+  <si>
+    <t>Login- Negative testcase</t>
+  </si>
+  <si>
+    <t>TestPriority</t>
+  </si>
+  <si>
+    <t>Pre-Requisite</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Post-Requisite</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Test Scenario lD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S.No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter invalid Email&amp; any password and hit login button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launch application</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCase Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected output</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual output</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Browser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Comments</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>Login-1</t>
-  </si>
-  <si>
-    <t>TestCase lD</t>
-  </si>
-  <si>
-    <t>TestCase
-Description</t>
-  </si>
-  <si>
-    <t>Login- Negative testcase</t>
-  </si>
-  <si>
-    <t>TestPriority</t>
-  </si>
-  <si>
-    <t>Pre-Requisite</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Post-Requisite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccopyright.com.cn/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login-ccopyright</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Test Execution Steps:</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Actual
-output</t>
-  </si>
-  <si>
-    <t>Test
-Browser</t>
-  </si>
-  <si>
-    <t>Test
-Result</t>
-  </si>
-  <si>
-    <t>Test
-Comments</t>
-  </si>
-  <si>
-    <t>IE-11</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Test Scenario lD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login-1B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S.No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected
-output</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Priya10/17/2017 11:44AM]:
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccopyright home</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop up the complete the security verification panel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:30AM]:
 Launch
 successful</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Enter invalid Email&amp; any password and hit login button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Launch application</t>
+    <t>Complete security verification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click on the correct letter or number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entering Login Verification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:31AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The user type is incorrect or the account name does not match the password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter valid Email &amp; incorrect Password and hit login button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email id :1310722434@qq.com
+Password:********</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Email id : invalid@xyz.com
-Password:**</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The email addressor phone number that you've entered doesn't match any account. Sign up for an account.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The email address or phone number that you've entered doesn't match any account. Sign up for an account.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Facebook home</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Priya10/17/201711:45AM]:lnvalid login
-attempt
-stopped</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Entervalid Email &amp; incorrect Password and hit login button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email id :valid@xyz.com
-Password:"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>The password that you've enteredis incorrect Forgotten password?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>the password that you've entered is incorrect. Forgotten password?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Priya10/17/2017 11:46AM]:lnvalid login
-attempt
-stopped</t>
+Password:********</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:33AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:35AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login- Positive testcase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter valid Email &amp; correct Password and hit login button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email id :17801222206
+Password:********</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jump to account page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:40AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:41AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:29AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer- Negative testcase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Platform</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:50AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:51AM]:
+Launch
+successful</t>
+  </si>
+  <si>
+    <t>Transfer-Wechat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wechat APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wechat home page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap a conversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go to the conversion page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:52AM]:
+Launch
+successful</t>
+  </si>
+  <si>
+    <t>the amount transferred exceeds the balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insufficient available balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer- Postive testcase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer the appropriate amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a conversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit login button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the login button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tranfer the amount transferred exceeds the balance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the appropriate amount</t>
+  </si>
+  <si>
+    <t>Transfer success</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:54AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:55AM]:
+Launch
+successful</t>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:56AM]:
+Launch
+successful</t>
+  </si>
+  <si>
+    <t>RedPocket-Wechat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPocket-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPocket- Negative testcase</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:57AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:58AM]:
+Launch
+successful</t>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 12:59AM]:
+Launch
+successful</t>
+  </si>
+  <si>
+    <t>Select a group conversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap a group conversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of red packets cannot exceed the current number of group chats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input a invalid number of red pocket &amp; a valid total amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input a valid number of red pocket &amp; a invalid total amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the amount is greater than group member &amp; The total amount is not more than 200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the amount is not greater than group member &amp; The total amount is more than 200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A single red envelope is no more than 200 yuan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input a invalid number of red pocket &amp; a invalid total amount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the amount is greater than group member &amp; The total amount is more than 200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 13:00AM]:
+Launch
+successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Routhleck9/30/2022 13:01AM]:
+Launch
+successful</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +468,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,17 +545,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -334,14 +565,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,38 +605,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,238 +943,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9" t="s">
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="201.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="143.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -3416,18 +3679,35 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="25">
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="C1:E1"/>
@@ -3438,7 +3718,20 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3447,4 +3740,953 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E2802-B768-486C-B8AB-BD623358CE5C}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{784C6488-ADB2-4109-B292-7F2CAEB63E2D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD06E37F-956D-4C51-B76C-33DFCFB29724}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="http://www.ccopyright.com.cn/" xr:uid="{48FC65AD-5442-4813-9695-0ECFE13C12EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D60EF9-7D50-4408-9CE7-12035EFE173C}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="http://www.ccopyright.com.cn/" xr:uid="{33CD40E2-B513-4116-83A6-A7D020E092AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416F0DD9-0120-4859-B0B5-6D52BFFBEC7C}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="A1:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="173.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="189" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="173.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="http://www.ccopyright.com.cn/" xr:uid="{04273072-0AB9-4900-8351-9D07F3002426}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/软件测试与质量保证(updating)/hw/hw1.xlsx
+++ b/软件测试与质量保证(updating)/hw/hw1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1GIT\myNotes\软件测试与质量保证(updating)\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AE0851-8009-4431-91C9-ABB3E8F71575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF92FF33-4D54-47A4-937E-2DAEE06A150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1845" windowWidth="14880" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-12660" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="175">
   <si>
     <t>TestCase lD</t>
   </si>
@@ -188,39 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Login- Positive testcase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter valid Email &amp; correct Password and hit login button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email id :17801222206
-Password:********</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jump to account page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Routhleck9/30/2022 12:40AM]:
-Launch
-successful</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Routhleck9/30/2022 12:41AM]:
-Launch
-successful</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[Routhleck9/30/2022 12:29AM]:
 Launch
 successful</t>
@@ -415,6 +382,504 @@
     <t>[Routhleck9/30/2022 13:01AM]:
 Launch
 successful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试场景id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试优先级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开登录页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的账号密码和验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆成功，跳转到主页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败，账号错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示用户名或密码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败，密码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的账号和正确的密码与验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的密码和正确的账号与验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败，验证码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的验证码和正确的账号与密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示请填写验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败，账号和密码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的账号与密码和正确的验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录-6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败，账号、密码和验证码均错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的账号、密码与验证码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入注册页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击注册按钮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到注册页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入账号和密码以及确认密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败，密码不一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入账号和密码以及不一致的确认密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示两次输入的密码不一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败，账户名过长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入过长的账号和密码以及确认密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示账号过长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败，密码过长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入过长的密码与确认密码以及账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示密码过长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开预测页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/predict</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择knn算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击knn算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中knn算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择训练集与测试集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测成功，knn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测成功，逻辑回归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择逻辑回归算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击逻辑回归算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中逻辑回归算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测成功，显示准确率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开历史记录页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/record</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有id包含关键字的历史记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史记录-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示查询到0条记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试用例id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试执行过程:</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：LiuT
+密码：123
+验证码为正确的验证码</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试执行过程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：LiuT123
+密码：123
+验证码为正确的验证码</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：LiuT
+密码：114514
+验证码为正确的验证码</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：a
+密码：1
+确认密码：1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：a
+密码：1
+确认密码：2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：bbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbb
+密码：1
+确认密码：1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>账号：c
+密码：11111111111111111111111111111111111111111111111111111111111111111111111111111
+确认密码：11111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>训练集：JDT, Lucene, PDE随机选择
+测试集：JDT, Lucene, PDE随机选择</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>没通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +887,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -456,8 +921,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +950,13 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -552,75 +1040,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="输出" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -924,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -943,91 +1517,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1037,10 +1611,10 @@
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1053,10 +1627,10 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1066,15 +1640,15 @@
       <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -1082,12 +1656,12 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>28</v>
@@ -1095,10 +1669,10 @@
       <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1111,10 +1685,10 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1124,10 +1698,10 @@
       <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1140,10 +1714,10 @@
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
@@ -1153,10 +1727,10 @@
       <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1169,10 +1743,10 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
@@ -1182,10 +1756,10 @@
       <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1195,18 +1769,18 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -3707,6 +4281,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G5:H5"/>
@@ -3723,15 +4306,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3744,96 +4318,2271 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799E2802-B768-486C-B8AB-BD623358CE5C}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K105" sqref="A100:K105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="21"/>
+    <col min="4" max="4" width="12.375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="4.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9" style="21"/>
+    <col min="9" max="9" width="6" style="21" customWidth="1"/>
+    <col min="10" max="10" width="3.25" style="21" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <v>1</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
+        <v>2</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <v>2</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="22">
+        <v>1</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="22">
+        <v>2</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="22">
+        <v>1</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="22">
+        <v>2</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="22">
+        <v>1</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="22">
+        <v>2</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="22">
+        <v>3</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="22">
+        <v>1</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="22">
+        <v>2</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="22">
+        <v>3</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="22">
+        <v>1</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="22">
+        <v>2</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="405" x14ac:dyDescent="0.15">
+      <c r="A65" s="22">
+        <v>3</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="22">
+        <v>1</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="22">
+        <v>2</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="22">
+        <v>3</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="28"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="22">
+        <v>1</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="22">
+        <v>2</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A81" s="22">
+        <v>3</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="28"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="22">
+        <v>1</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="22">
+        <v>2</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="A90" s="22">
+        <v>3</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G93" s="19"/>
+      <c r="H93" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="19"/>
+      <c r="H94" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+    </row>
+    <row r="95" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="28"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="22">
+        <v>1</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="22">
+        <v>2</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="21">
+        <v>1</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="28"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G101" s="19"/>
+      <c r="H101" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="28"/>
+    </row>
+    <row r="102" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="28"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="22">
+        <v>1</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="22">
+        <v>2</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="223">
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="E104:J104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="A102:K102"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="E89:I89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="E90:J90"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="E87:J87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:J73"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{784C6488-ADB2-4109-B292-7F2CAEB63E2D}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{DE947173-BD70-4AEC-9810-FC51F2A8DE55}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{181B584B-C00D-4324-9D84-ABDEC1BDFA4E}"/>
+    <hyperlink ref="D26" r:id="rId4" xr:uid="{94A0B030-A415-4671-A27D-10EBC4C63E3C}"/>
+    <hyperlink ref="D33" r:id="rId5" xr:uid="{40A0024A-2A52-4526-9E7A-A41901622D67}"/>
+    <hyperlink ref="D40" r:id="rId6" xr:uid="{D504F608-C4E4-4D77-8EBD-3D06D6567B9A}"/>
+    <hyperlink ref="D47" r:id="rId7" xr:uid="{7B4BE669-310C-416F-AB37-E6DBEDC538F4}"/>
+    <hyperlink ref="D55" r:id="rId8" xr:uid="{60BE686B-9FAD-4E5A-9D10-D7C726BA46F6}"/>
+    <hyperlink ref="D63" r:id="rId9" xr:uid="{0F6E36F8-A3E5-43DF-AFCC-96A807344EFE}"/>
+    <hyperlink ref="D71" r:id="rId10" xr:uid="{7A3B091E-7067-4AAB-BBB0-1F3E91761877}"/>
+    <hyperlink ref="D79" r:id="rId11" xr:uid="{2221BECF-D578-4298-84B9-DED0A9136394}"/>
+    <hyperlink ref="D88" r:id="rId12" xr:uid="{AA81FE05-9CD9-42F3-B517-25CCDEDE8D00}"/>
+    <hyperlink ref="D97" r:id="rId13" xr:uid="{7FBD4250-8087-440D-A0C6-58E8FAE6E519}"/>
+    <hyperlink ref="D104" r:id="rId14" xr:uid="{1633CF7F-E1DC-4F66-A3C3-491A6487BA70}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD06E37F-956D-4C51-B76C-33DFCFB29724}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3843,10 +6592,10 @@
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="13"/>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
@@ -3858,69 +6607,88 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
+      <c r="C6" s="13"/>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:J4"/>
+  <mergeCells count="21">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:B1"/>
@@ -3931,235 +6699,17 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{784C6488-ADB2-4109-B292-7F2CAEB63E2D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD06E37F-956D-4C51-B76C-33DFCFB29724}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -4181,87 +6731,87 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4271,10 +6821,10 @@
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="13"/>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
@@ -4286,99 +6836,88 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:J4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:B1"/>
@@ -4389,6 +6928,17 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -4403,97 +6953,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416F0DD9-0120-4859-B0B5-6D52BFFBEC7C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="18"/>
+    <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -4503,10 +7053,10 @@
       <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="13"/>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
@@ -4518,144 +7068,159 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="110.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="173.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="189" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="18"/>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="173.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B8:C8"/>
@@ -4666,21 +7231,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
